--- a/biology/Zoologie/Amolops_afghanus/Amolops_afghanus.xlsx
+++ b/biology/Zoologie/Amolops_afghanus/Amolops_afghanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops afghanus est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops afghanus est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le nord de la Birmanie dans l'État Kachin ;
 en République populaire de Chine dans la province du Yunnan.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été relevé de sa synonymie avec Amolops marmoratus par Dever, Fuiten, Konu et Wilkinson en 2012[2] où il avait été placé par Anderson en 1871[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été relevé de sa synonymie avec Amolops marmoratus par Dever, Fuiten, Konu et Wilkinson en 2012 où il avait été placé par Anderson en 1871.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, l'Afghanistan. Ce lieu est erroné.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1858 : Neue Batrachier in der Sammlung des Britischen Museums. Archiv für Naturgeschichte, vol. 24, no 1, p. 319-328 (texte intégral).</t>
         </is>
